--- a/LF/TAS/STP/2024/st_lf_tas2_2412_4_diag_result.xlsx
+++ b/LF/TAS/STP/2024/st_lf_tas2_2412_4_diag_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194AFF71-F38B-49B8-9E6C-9B1BAB181971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EDCE0-E9A5-4D5D-B39C-F95DA2C7A058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -165,31 +165,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>m_generatedid</t>
-  </si>
-  <si>
-    <t>Introduza a segunda parte e a terceira parte do código gerado (tem de ter o formato 1234-567 apenas com números e traços)</t>
-  </si>
-  <si>
-    <t>Por exemplo, se o código gerado foi 123-1234-567, a segunda e terceira partes do código é 123-1234-567</t>
-  </si>
-  <si>
-    <t>Entrer la deuxième partie et la troisième partie du code généré (doit doit avoir le format 123-1234-567 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Par exemple si le code généré était 123-1234-567, le deuxième et troisième partie du code est de 123-1234-567</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The format must be 123-1234-567. Only the second and third parts of the code</t>
-  </si>
-  <si>
-    <t>Le format doit être 123-1234-567. Juste la deuxième et la troisième partie du code</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -388,12 +363,6 @@
     <t>Portugese</t>
   </si>
   <si>
-    <t>st_lf_tas2_2412_4_diag_result</t>
-  </si>
-  <si>
-    <t>(2024 Dez) 4. TAS2 FL - Filaremia noturna</t>
-  </si>
-  <si>
     <t>eu_list</t>
   </si>
   <si>
@@ -791,6 +760,33 @@
   </si>
   <si>
     <t>eu_list = ${m_eu}</t>
+  </si>
+  <si>
+    <t>bind::db_get</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_4</t>
+  </si>
+  <si>
+    <t>m_code_id</t>
+  </si>
+  <si>
+    <t>st_lf_tas2_2412_4_diag_result_v2</t>
+  </si>
+  <si>
+    <t>(2024 Dez) 4. TAS2 FL - Filaremia noturna V2</t>
+  </si>
+  <si>
+    <t>Sélectionner le code unique</t>
+  </si>
+  <si>
+    <t>Selecione o código exclusivo</t>
+  </si>
+  <si>
+    <t>regex(., '^\d{2}_\d{3}_\d{1,4}$')</t>
+  </si>
+  <si>
+    <t>O formato do código está incorreto ou o código não apareceu na seleção do local</t>
   </si>
 </sst>
 </file>
@@ -1296,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="R7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1315,17 +1311,21 @@
     <col min="6" max="6" width="47.375" style="13" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.875" style="13" customWidth="1"/>
-    <col min="9" max="10" width="29.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="36.875" style="13" customWidth="1"/>
     <col min="11" max="11" width="49.375" style="33" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="13" customWidth="1"/>
     <col min="14" max="14" width="35.375" style="13" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="13" customWidth="1"/>
     <col min="16" max="16" width="36.625" style="13" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="13"/>
+    <col min="17" max="17" width="11" style="13"/>
+    <col min="18" max="18" width="11.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="37.5">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1377,14 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="63">
+      <c r="R1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="63">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -1416,12 +1422,12 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1">
+    <row r="3" spans="1:19" s="11" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>29</v>
@@ -1444,7 +1450,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
+    <row r="4" spans="1:19" s="11" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -1452,11 +1458,11 @@
         <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="22"/>
@@ -1471,10 +1477,10 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="31.5">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="31.5">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
@@ -1544,35 +1550,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="63">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="46.5" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>49</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F7" s="20"/>
       <c r="G7" s="17"/>
       <c r="H7" s="25" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="J7" s="20"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="16" t="s">
@@ -1582,19 +1582,19 @@
       <c r="O7" s="17"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1">
+    <row r="8" spans="1:19" s="11" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="17"/>
@@ -1610,24 +1610,24 @@
       <c r="O8" s="17"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1">
+    <row r="9" spans="1:19" s="11" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1642,19 +1642,19 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1">
+    <row r="10" spans="1:19" s="11" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="16"/>
@@ -1662,7 +1662,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="26"/>
       <c r="K10" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="16" t="s">
@@ -1672,19 +1672,19 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="28"/>
@@ -1698,12 +1698,12 @@
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
@@ -1720,12 +1720,12 @@
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
@@ -1768,7 +1768,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1780,254 +1780,254 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -2040,104 +2040,104 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2145,2030 +2145,2030 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B148" s="13">
         <v>101</v>
@@ -4180,12 +4180,12 @@
         <v>101</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B149" s="13">
         <v>102</v>
@@ -4197,12 +4197,12 @@
         <v>102</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B150" s="13">
         <v>103</v>
@@ -4214,12 +4214,12 @@
         <v>103</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B151" s="13">
         <v>104</v>
@@ -4231,12 +4231,12 @@
         <v>104</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B152" s="13">
         <v>105</v>
@@ -4248,12 +4248,12 @@
         <v>105</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B153" s="13">
         <v>106</v>
@@ -4265,12 +4265,12 @@
         <v>106</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B154" s="13">
         <v>107</v>
@@ -4282,12 +4282,12 @@
         <v>107</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B155" s="13">
         <v>108</v>
@@ -4299,12 +4299,12 @@
         <v>108</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B156" s="13">
         <v>109</v>
@@ -4316,12 +4316,12 @@
         <v>109</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B157" s="13">
         <v>110</v>
@@ -4333,12 +4333,12 @@
         <v>110</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B158" s="13">
         <v>111</v>
@@ -4350,12 +4350,12 @@
         <v>111</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B159" s="13">
         <v>112</v>
@@ -4367,12 +4367,12 @@
         <v>112</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B160" s="13">
         <v>113</v>
@@ -4384,12 +4384,12 @@
         <v>113</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B161" s="13">
         <v>114</v>
@@ -4401,12 +4401,12 @@
         <v>114</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B162" s="13">
         <v>115</v>
@@ -4418,12 +4418,12 @@
         <v>115</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B163" s="13">
         <v>116</v>
@@ -4435,12 +4435,12 @@
         <v>116</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B164" s="13">
         <v>117</v>
@@ -4452,12 +4452,12 @@
         <v>117</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B165" s="13">
         <v>118</v>
@@ -4469,12 +4469,12 @@
         <v>118</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B166" s="13">
         <v>119</v>
@@ -4486,12 +4486,12 @@
         <v>119</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B167" s="13">
         <v>120</v>
@@ -4503,12 +4503,12 @@
         <v>120</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B168" s="13">
         <v>121</v>
@@ -4520,12 +4520,12 @@
         <v>121</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B169" s="13">
         <v>122</v>
@@ -4537,12 +4537,12 @@
         <v>122</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B170" s="13">
         <v>123</v>
@@ -4554,12 +4554,12 @@
         <v>123</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B171" s="13">
         <v>124</v>
@@ -4571,12 +4571,12 @@
         <v>124</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B172" s="13">
         <v>125</v>
@@ -4588,12 +4588,12 @@
         <v>125</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B173" s="13">
         <v>126</v>
@@ -4605,12 +4605,12 @@
         <v>126</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B174" s="13">
         <v>127</v>
@@ -4622,12 +4622,12 @@
         <v>127</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B175" s="13">
         <v>128</v>
@@ -4639,12 +4639,12 @@
         <v>128</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B176" s="13">
         <v>129</v>
@@ -4656,12 +4656,12 @@
         <v>129</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B177" s="13">
         <v>130</v>
@@ -4673,12 +4673,12 @@
         <v>130</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B178" s="13">
         <v>131</v>
@@ -4690,12 +4690,12 @@
         <v>131</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B179" s="13">
         <v>132</v>
@@ -4707,12 +4707,12 @@
         <v>132</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B180" s="13">
         <v>133</v>
@@ -4724,12 +4724,12 @@
         <v>133</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B181" s="13">
         <v>134</v>
@@ -4741,12 +4741,12 @@
         <v>134</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B182" s="13">
         <v>135</v>
@@ -4758,12 +4758,12 @@
         <v>135</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B183" s="13">
         <v>136</v>
@@ -4775,12 +4775,12 @@
         <v>136</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B184" s="13">
         <v>137</v>
@@ -4792,12 +4792,12 @@
         <v>137</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B185" s="13">
         <v>138</v>
@@ -4809,12 +4809,12 @@
         <v>138</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B186" s="13">
         <v>139</v>
@@ -4826,12 +4826,12 @@
         <v>139</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B187" s="13">
         <v>140</v>
@@ -4843,12 +4843,12 @@
         <v>140</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B188" s="13">
         <v>141</v>
@@ -4860,12 +4860,12 @@
         <v>141</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B189" s="13">
         <v>142</v>
@@ -4877,12 +4877,12 @@
         <v>142</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B190" s="13">
         <v>143</v>
@@ -4894,12 +4894,12 @@
         <v>143</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B191" s="13">
         <v>144</v>
@@ -4911,12 +4911,12 @@
         <v>144</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B192" s="13">
         <v>145</v>
@@ -4928,12 +4928,12 @@
         <v>145</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B193" s="13">
         <v>146</v>
@@ -4945,12 +4945,12 @@
         <v>146</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B194" s="13">
         <v>147</v>
@@ -4962,12 +4962,12 @@
         <v>147</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B195" s="13">
         <v>148</v>
@@ -4979,12 +4979,12 @@
         <v>148</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B196" s="13">
         <v>149</v>
@@ -4996,12 +4996,12 @@
         <v>149</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B197" s="13">
         <v>150</v>
@@ -5013,12 +5013,12 @@
         <v>150</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B198" s="13">
         <v>151</v>
@@ -5030,12 +5030,12 @@
         <v>151</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B199" s="13">
         <v>152</v>
@@ -5047,12 +5047,12 @@
         <v>152</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B200" s="13">
         <v>153</v>
@@ -5064,12 +5064,12 @@
         <v>153</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B201" s="13">
         <v>154</v>
@@ -5081,12 +5081,12 @@
         <v>154</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B202" s="13">
         <v>155</v>
@@ -5098,12 +5098,12 @@
         <v>155</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B203" s="13">
         <v>156</v>
@@ -5115,12 +5115,12 @@
         <v>156</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B204" s="13">
         <v>157</v>
@@ -5132,12 +5132,12 @@
         <v>157</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B205" s="13">
         <v>158</v>
@@ -5149,12 +5149,12 @@
         <v>158</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B206" s="13">
         <v>159</v>
@@ -5166,12 +5166,12 @@
         <v>159</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B207" s="13">
         <v>160</v>
@@ -5183,12 +5183,12 @@
         <v>160</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B208" s="13">
         <v>161</v>
@@ -5200,12 +5200,12 @@
         <v>161</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B209" s="13">
         <v>162</v>
@@ -5217,12 +5217,12 @@
         <v>162</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B210" s="13">
         <v>163</v>
@@ -5234,12 +5234,12 @@
         <v>163</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B211" s="13">
         <v>164</v>
@@ -5251,12 +5251,12 @@
         <v>164</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B212" s="13">
         <v>165</v>
@@ -5268,12 +5268,12 @@
         <v>165</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B213" s="13">
         <v>166</v>
@@ -5285,12 +5285,12 @@
         <v>166</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B214" s="13">
         <v>167</v>
@@ -5302,12 +5302,12 @@
         <v>167</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B215" s="13">
         <v>168</v>
@@ -5319,12 +5319,12 @@
         <v>168</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B216" s="13">
         <v>169</v>
@@ -5336,12 +5336,12 @@
         <v>169</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B217" s="13">
         <v>170</v>
@@ -5353,12 +5353,12 @@
         <v>170</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B218" s="13">
         <v>171</v>
@@ -5370,12 +5370,12 @@
         <v>171</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B219" s="13">
         <v>172</v>
@@ -5387,12 +5387,12 @@
         <v>172</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B220" s="13">
         <v>173</v>
@@ -5404,12 +5404,12 @@
         <v>173</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B221" s="13">
         <v>174</v>
@@ -5421,12 +5421,12 @@
         <v>174</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B222" s="13">
         <v>175</v>
@@ -5438,12 +5438,12 @@
         <v>175</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B223" s="13">
         <v>176</v>
@@ -5455,12 +5455,12 @@
         <v>176</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B224" s="13">
         <v>177</v>
@@ -5472,12 +5472,12 @@
         <v>177</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B225" s="13">
         <v>178</v>
@@ -5489,12 +5489,12 @@
         <v>178</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B226" s="13">
         <v>179</v>
@@ -5506,12 +5506,12 @@
         <v>179</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B227" s="13">
         <v>180</v>
@@ -5523,12 +5523,12 @@
         <v>180</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B228" s="13">
         <v>181</v>
@@ -5540,12 +5540,12 @@
         <v>181</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B229" s="13">
         <v>182</v>
@@ -5557,12 +5557,12 @@
         <v>182</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B230" s="13">
         <v>183</v>
@@ -5574,12 +5574,12 @@
         <v>183</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B231" s="13">
         <v>184</v>
@@ -5591,12 +5591,12 @@
         <v>184</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B232" s="13">
         <v>185</v>
@@ -5608,12 +5608,12 @@
         <v>185</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B233" s="13">
         <v>186</v>
@@ -5625,12 +5625,12 @@
         <v>186</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B234" s="13">
         <v>187</v>
@@ -5642,12 +5642,12 @@
         <v>187</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B235" s="13">
         <v>188</v>
@@ -5659,12 +5659,12 @@
         <v>188</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B236" s="13">
         <v>189</v>
@@ -5676,12 +5676,12 @@
         <v>189</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B237" s="13">
         <v>190</v>
@@ -5693,12 +5693,12 @@
         <v>190</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B238" s="13">
         <v>191</v>
@@ -5710,12 +5710,12 @@
         <v>191</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B239" s="13">
         <v>192</v>
@@ -5727,12 +5727,12 @@
         <v>192</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B240" s="13">
         <v>193</v>
@@ -5744,12 +5744,12 @@
         <v>193</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B241" s="13">
         <v>194</v>
@@ -5761,12 +5761,12 @@
         <v>194</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B242" s="13">
         <v>195</v>
@@ -5778,12 +5778,12 @@
         <v>195</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B243" s="13">
         <v>196</v>
@@ -5795,12 +5795,12 @@
         <v>196</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B244" s="13">
         <v>197</v>
@@ -5812,12 +5812,12 @@
         <v>197</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B245" s="13">
         <v>198</v>
@@ -5829,12 +5829,12 @@
         <v>198</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B246" s="13">
         <v>199</v>
@@ -5846,12 +5846,12 @@
         <v>199</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B247" s="13">
         <v>200</v>
@@ -5863,12 +5863,12 @@
         <v>200</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B248" s="13">
         <v>201</v>
@@ -5880,12 +5880,12 @@
         <v>201</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B249" s="13">
         <v>202</v>
@@ -5897,12 +5897,12 @@
         <v>202</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B250" s="13">
         <v>203</v>
@@ -5914,12 +5914,12 @@
         <v>203</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B251" s="13">
         <v>204</v>
@@ -5931,12 +5931,12 @@
         <v>204</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B252" s="13">
         <v>205</v>
@@ -5948,12 +5948,12 @@
         <v>205</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B253" s="13">
         <v>206</v>
@@ -5965,12 +5965,12 @@
         <v>206</v>
       </c>
       <c r="G253" s="13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B254" s="13">
         <v>207</v>
@@ -5982,12 +5982,12 @@
         <v>207</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B255" s="13">
         <v>208</v>
@@ -5999,12 +5999,12 @@
         <v>208</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B256" s="13">
         <v>209</v>
@@ -6016,12 +6016,12 @@
         <v>209</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B257" s="13">
         <v>210</v>
@@ -6033,12 +6033,12 @@
         <v>210</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B258" s="13">
         <v>211</v>
@@ -6050,12 +6050,12 @@
         <v>211</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B259" s="13">
         <v>212</v>
@@ -6067,12 +6067,12 @@
         <v>212</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B260" s="13">
         <v>213</v>
@@ -6084,12 +6084,12 @@
         <v>213</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B261" s="13">
         <v>214</v>
@@ -6101,12 +6101,12 @@
         <v>214</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B262" s="13">
         <v>215</v>
@@ -6118,12 +6118,12 @@
         <v>215</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B263" s="13">
         <v>216</v>
@@ -6135,12 +6135,12 @@
         <v>216</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B264" s="13">
         <v>217</v>
@@ -6152,12 +6152,12 @@
         <v>217</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B265" s="13">
         <v>218</v>
@@ -6169,12 +6169,12 @@
         <v>218</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B266" s="13">
         <v>219</v>
@@ -6186,12 +6186,12 @@
         <v>219</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B267" s="13">
         <v>220</v>
@@ -6203,7 +6203,7 @@
         <v>220</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6220,39 +6220,40 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
+        <v>250</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>